--- a/RNN_python/output_data_test/anom_data5.xlsx
+++ b/RNN_python/output_data_test/anom_data5.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43075</v>
+        <v>43069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3081182418048201</v>
+        <v>20.23630589176331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43075.04166666666</v>
+        <v>43069.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>8.231245758292971</v>
+        <v>69.52299533184029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43075.08333333334</v>
+        <v>43069.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>6.146321429063164</v>
+        <v>1.869980040294294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43075.125</v>
+        <v>43069.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4.818800856327911</v>
+        <v>0.8161887257844853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43075.16666666666</v>
+        <v>43069.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.084034429142292</v>
+        <v>16.32234430905888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43075.20833333334</v>
+        <v>43069.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>9.205987916082805</v>
+        <v>33.9062295882339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43075.25</v>
+        <v>43069.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13.87718665785725</v>
+        <v>48.98466235417285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43075.29166666666</v>
+        <v>43069.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>35.05729508621114</v>
+        <v>72.41805445916286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43075.33333333334</v>
+        <v>43069.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>266.2348110689824</v>
+        <v>140.3205339324077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43075.375</v>
+        <v>43069.375</v>
       </c>
       <c r="D11" t="n">
-        <v>411.0639578433888</v>
+        <v>264.0381848549266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43075.41666666666</v>
+        <v>43069.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>428.7265318817691</v>
+        <v>344.4784769553651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43075.45833333334</v>
+        <v>43069.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>406.0954435761664</v>
+        <v>356.2244140147764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43075.5</v>
+        <v>43069.5</v>
       </c>
       <c r="D14" t="n">
-        <v>328.4015235826187</v>
+        <v>299.796296485786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43075.54166666666</v>
+        <v>43069.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>295.6104495518168</v>
+        <v>250.1289118902487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43075.58333333334</v>
+        <v>43069.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>234.5236230593608</v>
+        <v>191.7208096774708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43075.625</v>
+        <v>43069.625</v>
       </c>
       <c r="D17" t="n">
-        <v>176.2493541310607</v>
+        <v>143.3814794541053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43075.66666666666</v>
+        <v>43069.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>133.801361814185</v>
+        <v>100.8343435016875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43075.70833333334</v>
+        <v>43069.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>101.2601018814945</v>
+        <v>65.89741417093379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43075.75</v>
+        <v>43069.75</v>
       </c>
       <c r="D20" t="n">
-        <v>75.92052143005266</v>
+        <v>39.3624265132393</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43075.79166666666</v>
+        <v>43069.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>56.63984477827611</v>
+        <v>20.68752667528285</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43075.83333333334</v>
+        <v>43069.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>42.71432760900269</v>
+        <v>7.993430362309908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43075.875</v>
+        <v>43069.875</v>
       </c>
       <c r="D23" t="n">
-        <v>33.32663543236426</v>
+        <v>-0.8041918589960915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43075.91666666666</v>
+        <v>43069.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>27.34203559201093</v>
+        <v>-7.259795723843638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43075.95833333334</v>
+        <v>43069.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>23.74290187899247</v>
+        <v>-12.31843099412725</v>
       </c>
     </row>
   </sheetData>
@@ -709,21 +709,21 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43075</v>
+        <v>43069</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43075.04166666666</v>
+        <v>43069.04166666666</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
@@ -733,220 +733,220 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43075.08333333334</v>
+        <v>43069.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43075.125</v>
+        <v>43069.125</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43075.16666666666</v>
+        <v>43069.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43075.20833333334</v>
+        <v>43069.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43075.25</v>
+        <v>43069.25</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43075.29166666666</v>
+        <v>43069.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43075.33333333334</v>
+        <v>43069.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>454</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43075.375</v>
+        <v>43069.375</v>
       </c>
       <c r="D11" t="n">
-        <v>415</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43075.41666666666</v>
+        <v>43069.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43075.45833333334</v>
+        <v>43069.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43075.5</v>
+        <v>43069.5</v>
       </c>
       <c r="D14" t="n">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43075.54166666666</v>
+        <v>43069.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43075.58333333334</v>
+        <v>43069.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43075.625</v>
+        <v>43069.625</v>
       </c>
       <c r="D17" t="n">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43075.66666666666</v>
+        <v>43069.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43075.70833333334</v>
+        <v>43069.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43075.75</v>
+        <v>43069.75</v>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43075.79166666666</v>
+        <v>43069.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43075.83333333334</v>
+        <v>43069.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43075.875</v>
+        <v>43069.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43075.91666666666</v>
+        <v>43069.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43075.95833333334</v>
+        <v>43069.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data5.xlsx
+++ b/RNN_python/output_data_test/anom_data5.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43069</v>
+        <v>43068</v>
       </c>
       <c r="D2" t="n">
-        <v>20.23630589176331</v>
+        <v>43.43582284015955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43069.04166666666</v>
+        <v>43068.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>69.52299533184029</v>
+        <v>42.33607899140807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43069.08333333334</v>
+        <v>43068.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>1.869980040294294</v>
+        <v>46.02081758290321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43069.125</v>
+        <v>43068.125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8161887257844853</v>
+        <v>53.46897524207041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43069.16666666666</v>
+        <v>43068.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>16.32234430905888</v>
+        <v>58.42602716139555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43069.20833333334</v>
+        <v>43068.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>33.9062295882339</v>
+        <v>57.12242356327089</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43069.25</v>
+        <v>43068.25</v>
       </c>
       <c r="D8" t="n">
-        <v>48.98466235417285</v>
+        <v>91.56716697202847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43069.29166666666</v>
+        <v>43068.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>72.41805445916286</v>
+        <v>194.5790300981915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43069.33333333334</v>
+        <v>43068.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>140.3205339324077</v>
+        <v>341.4206711195272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43069.375</v>
+        <v>43068.375</v>
       </c>
       <c r="D11" t="n">
-        <v>264.0381848549266</v>
+        <v>348.9042304449697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43069.41666666666</v>
+        <v>43068.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>344.4784769553651</v>
+        <v>341.1493553688444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43069.45833333334</v>
+        <v>43068.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>356.2244140147764</v>
+        <v>311.1212654482083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43069.5</v>
+        <v>43068.5</v>
       </c>
       <c r="D14" t="n">
-        <v>299.796296485786</v>
+        <v>231.2934187203772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43069.54166666666</v>
+        <v>43068.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>250.1289118902487</v>
+        <v>199.7643554545267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43069.58333333334</v>
+        <v>43068.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>191.7208096774708</v>
+        <v>153.8026459192575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43069.625</v>
+        <v>43068.625</v>
       </c>
       <c r="D17" t="n">
-        <v>143.3814794541053</v>
+        <v>123.8917307840678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43069.66666666666</v>
+        <v>43068.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>100.8343435016875</v>
+        <v>97.49935651546366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43069.70833333334</v>
+        <v>43068.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89741417093379</v>
+        <v>72.69280771022616</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43069.75</v>
+        <v>43068.75</v>
       </c>
       <c r="D20" t="n">
-        <v>39.3624265132393</v>
+        <v>51.95188831725517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43069.79166666666</v>
+        <v>43068.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>20.68752667528285</v>
+        <v>35.45305635939405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43069.83333333334</v>
+        <v>43068.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>7.993430362309908</v>
+        <v>23.28083195047358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43069.875</v>
+        <v>43068.875</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.8041918589960915</v>
+        <v>15.15045543879482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43069.91666666666</v>
+        <v>43068.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.259795723843638</v>
+        <v>10.51844029816422</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43069.95833333334</v>
+        <v>43068.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-12.31843099412725</v>
+        <v>37.61727883075385</v>
       </c>
     </row>
   </sheetData>
@@ -709,191 +709,191 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43069</v>
+        <v>43068</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43069.04166666666</v>
+        <v>43068.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43069.08333333334</v>
+        <v>43068.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43069.125</v>
+        <v>43068.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43069.16666666666</v>
+        <v>43068.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43069.20833333334</v>
+        <v>43068.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43069.25</v>
+        <v>43068.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43069.29166666666</v>
+        <v>43068.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43069.33333333334</v>
+        <v>43068.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>489</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43069.375</v>
+        <v>43068.375</v>
       </c>
       <c r="D11" t="n">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43069.41666666666</v>
+        <v>43068.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>459</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43069.45833333334</v>
+        <v>43068.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43069.5</v>
+        <v>43068.5</v>
       </c>
       <c r="D14" t="n">
-        <v>289</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43069.54166666666</v>
+        <v>43068.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43069.58333333334</v>
+        <v>43068.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43069.625</v>
+        <v>43068.625</v>
       </c>
       <c r="D17" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43069.66666666666</v>
+        <v>43068.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43069.70833333334</v>
+        <v>43068.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43069.75</v>
+        <v>43068.75</v>
       </c>
       <c r="D20" t="n">
         <v>55</v>
@@ -903,17 +903,17 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43069.79166666666</v>
+        <v>43068.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43069.83333333334</v>
+        <v>43068.83333333334</v>
       </c>
       <c r="D22" t="n">
         <v>21</v>
@@ -923,30 +923,30 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43069.875</v>
+        <v>43068.875</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43069.91666666666</v>
+        <v>43068.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43069.95833333334</v>
+        <v>43068.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
